--- a/AdeventOfCode/AoC_4/input/map.xlsx
+++ b/AdeventOfCode/AoC_4/input/map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggallan2\Documents\Project_Code\_Github\AdventOfCOde\AdeventOfCode\AoC_4\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C21AD05-1E13-412E-8E1F-B0D877BFA0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1AEBBF-2FC9-4DD0-966B-89806F8858F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12795" yWindow="0" windowWidth="25605" windowHeight="21150" activeTab="1" xr2:uid="{071E842F-3B9F-4318-897D-529482B7430C}"/>
+    <workbookView xWindow="12795" yWindow="0" windowWidth="25605" windowHeight="21150" xr2:uid="{071E842F-3B9F-4318-897D-529482B7430C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="94">
   <si>
     <t>.</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t>coordinates:{X=2,Y=1} : A</t>
@@ -734,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF0371E-8DB5-48BF-9203-D643D2E218EF}">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,34 +846,34 @@
         <v>0</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -912,19 +915,19 @@
         <v>1</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>1</v>
@@ -939,7 +942,7 @@
         <v>2</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -981,19 +984,19 @@
         <v>2</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>1</v>
@@ -1005,10 +1008,10 @@
         <v>3</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1050,16 +1053,16 @@
         <v>3</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>3</v>
@@ -1077,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1119,34 +1122,34 @@
         <v>4</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1186,32 +1189,34 @@
         <v>5</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="S7" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1256,31 +1261,31 @@
         <v>2</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1322,34 +1327,34 @@
         <v>7</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1393,32 +1398,32 @@
       <c r="N10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>0</v>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1460,34 +1465,34 @@
         <v>9</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1504,6 +1509,294 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
+    <row r="14" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="3"/>
+    </row>
+    <row r="16" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+    </row>
+    <row r="17" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+    </row>
+    <row r="18" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+    </row>
+    <row r="19" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+    </row>
+    <row r="21" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+    </row>
+    <row r="23" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1513,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A48FD79-FCA6-401A-B246-1494DEDFA077}">
   <dimension ref="A1:C167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:A91"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,986 +1818,986 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C60" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C68" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C76" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C88" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C92" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C93" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C94" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C95" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C96" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C118" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C120" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C121" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C122" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C123" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C124" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C126" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C127" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C130" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C131" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C132" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C134" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C135" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C136" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C137" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C139" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C140" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C141" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C142" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C143" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C144" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C145" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C146" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C147" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C148" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C149" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C150" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C151" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C152" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C153" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C154" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C155" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C156" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="157" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C157" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C158" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C160" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C161" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C162" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C163" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C164" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C165" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C166" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C167" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
